--- a/Jupyter/Eurofer/Old/Rieth_2003.xlsx
+++ b/Jupyter/Eurofer/Old/Rieth_2003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1615220404316/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research\Repos\DatabaseCodes\Jupyter\Eurofer\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2411" documentId="8_{7E88B872-CAEB-4BC0-B055-CB0C8F51BFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13B771B0-EE0B-4658-9C12-28671ADC203E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B765837-2DF2-46AB-928A-8FD085ADCB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{612E499C-5F30-41F2-8E71-6EC2C64C59BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{612E499C-5F30-41F2-8E71-6EC2C64C59BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Article info" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="RA &amp; EL" sheetId="2" r:id="rId4"/>
     <sheet name="Impact &amp; fracture toughness" sheetId="3" r:id="rId5"/>
     <sheet name="Creep properties" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1306,13 +1305,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2073,16 +2072,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="2"/>
+    <col min="2" max="2" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="94.54296875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>125</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>126</v>
       </c>
@@ -2137,7 +2136,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>129</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>275</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>123</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>174</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="88.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="108" t="s">
         <v>219</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>221</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>231</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="109" t="s">
         <v>233</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>259</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>261</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>263</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="108" t="s">
         <v>265</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>267</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>269</v>
       </c>
@@ -2282,7 +2281,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>271</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>273</v>
       </c>
@@ -2317,22 +2316,22 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>135</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
         <v>137</v>
@@ -2358,7 +2357,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>138</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>139</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>140</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>141</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>142</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>144</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>136</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>177</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>178</v>
       </c>
@@ -2579,7 +2578,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>179</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>180</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>181</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>182</v>
       </c>
@@ -2647,7 +2646,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>183</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>184</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="106" t="s">
         <v>218</v>
       </c>
@@ -2710,59 +2709,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2241FBE-9946-4232-A80E-84C9B38E1D10}">
   <dimension ref="B1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:X39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" customWidth="1"/>
-    <col min="22" max="22" width="2.7109375" customWidth="1"/>
-    <col min="25" max="25" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7265625" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7265625" customWidth="1"/>
+    <col min="13" max="13" width="2.7265625" customWidth="1"/>
+    <col min="16" max="16" width="4.7265625" customWidth="1"/>
+    <col min="19" max="19" width="2.7265625" customWidth="1"/>
+    <col min="22" max="22" width="2.7265625" customWidth="1"/>
+    <col min="25" max="25" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="110" t="s">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B1" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="H1" s="110" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="H1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="Q1" s="110" t="s">
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="Q1" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-    </row>
-    <row r="2" spans="2:26" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+    </row>
+    <row r="2" spans="2:26" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="111" t="s">
         <v>18</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>18.947368421052602</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>509.722222222222</v>
       </c>
     </row>
-    <row r="5" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>300.76219512195098</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>438.84007029876898</v>
       </c>
     </row>
-    <row r="6" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>400.22865853658499</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>421.26537785588698</v>
       </c>
     </row>
-    <row r="7" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>502.43902439024299</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>380.49209138840001</v>
       </c>
     </row>
-    <row r="8" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>604.64939024390196</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>270.1230228471</v>
       </c>
     </row>
-    <row r="9" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>703.42987804877998</v>
       </c>
@@ -3095,9 +3094,9 @@
         <v>132.75261324041799</v>
       </c>
     </row>
-    <row r="10" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>15</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>621.67832167832103</v>
       </c>
     </row>
-    <row r="14" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>298.01829268292602</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>505.233380480905</v>
       </c>
     </row>
-    <row r="15" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>398.17073170731697</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>475.53041018387501</v>
       </c>
     </row>
-    <row r="16" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>498.32317073170702</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>399.15134370579898</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>598.47560975609701</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>282.46110325318199</v>
       </c>
     </row>
-    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>699.31402439024396</v>
       </c>
@@ -3399,42 +3398,42 @@
         <v>159.27475592747501</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="110" t="s">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B23" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="H23" s="110" t="s">
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="H23" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="Q23" s="110" t="s">
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="Q23" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-    </row>
-    <row r="24" spans="2:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+    </row>
+    <row r="24" spans="2:24" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="111" t="s">
         <v>18</v>
       </c>
@@ -3475,7 +3474,7 @@
       </c>
       <c r="X24" s="111"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>300</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>400</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>500</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>600</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>700</v>
       </c>
@@ -3830,7 +3829,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3855,7 +3854,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3880,7 +3879,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
@@ -3988,7 +3987,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>300</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B37" s="1">
         <v>400</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B38" s="1">
         <v>500</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>600</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B40" s="1">
         <v>700</v>
       </c>
@@ -4238,19 +4237,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H1:O1"/>
     <mergeCell ref="Q23:X23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E24:F24"/>
@@ -4260,6 +4246,19 @@
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="W24:X24"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4274,54 +4273,54 @@
       <selection activeCell="B26" sqref="B26:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" customWidth="1"/>
-    <col min="22" max="22" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7265625" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7265625" customWidth="1"/>
+    <col min="13" max="13" width="2.7265625" customWidth="1"/>
+    <col min="16" max="16" width="4.7265625" customWidth="1"/>
+    <col min="19" max="19" width="2.7265625" customWidth="1"/>
+    <col min="22" max="22" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="110" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B1" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="H1" s="110" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="H1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="Q1" s="110" t="s">
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="Q1" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B2" s="111" t="s">
         <v>18</v>
       </c>
@@ -4362,7 +4361,7 @@
       </c>
       <c r="X2" s="111"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -4412,11 +4411,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -4467,45 +4466,45 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="110" t="s">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B22" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="H22" s="110" t="s">
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="H22" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="Q22" s="110" t="s">
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="Q22" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-    </row>
-    <row r="23" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+    </row>
+    <row r="23" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="111" t="s">
         <v>18</v>
       </c>
@@ -4546,7 +4545,7 @@
       </c>
       <c r="X23" s="111"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
@@ -4640,7 +4639,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>300</v>
       </c>
@@ -4684,7 +4683,7 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>400</v>
       </c>
@@ -4728,7 +4727,7 @@
       </c>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>500</v>
       </c>
@@ -4772,7 +4771,7 @@
       </c>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>600</v>
       </c>
@@ -4816,7 +4815,7 @@
       </c>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>700</v>
       </c>
@@ -4855,7 +4854,7 @@
       </c>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4880,7 +4879,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4905,7 +4904,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -4956,7 +4955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
@@ -5001,7 +5000,7 @@
       </c>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>300</v>
       </c>
@@ -5046,7 +5045,7 @@
       </c>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>400</v>
       </c>
@@ -5091,7 +5090,7 @@
       </c>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B37" s="1">
         <v>500</v>
       </c>
@@ -5136,7 +5135,7 @@
       </c>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B38" s="1">
         <v>600</v>
       </c>
@@ -5181,7 +5180,7 @@
       </c>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>700</v>
       </c>
@@ -5224,11 +5223,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="Q22:X22"/>
@@ -5240,12 +5240,11 @@
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5256,34 +5255,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3CD72C-0B3F-4C9A-961A-A27D7B37A31B}">
   <dimension ref="B1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7265625" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" customWidth="1"/>
+    <col min="10" max="10" width="2.7265625" customWidth="1"/>
+    <col min="13" max="13" width="2.7265625" customWidth="1"/>
+    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7265625" customWidth="1"/>
+    <col min="20" max="20" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="2:19" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="111" t="s">
         <v>15</v>
       </c>
@@ -5308,11 +5307,11 @@
       <c r="P2" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="S2" s="112" t="s">
+      <c r="S2" s="110" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -5346,7 +5345,7 @@
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>-99.605633802816897</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>15.7283142389525</v>
       </c>
     </row>
-    <row r="5" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>-79.577464788732399</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>15.7283142389525</v>
       </c>
     </row>
-    <row r="6" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>-59.549295774647803</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>22.324058919803601</v>
       </c>
     </row>
-    <row r="7" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>-39.521126760563298</v>
       </c>
@@ -5474,7 +5473,7 @@
         <v>166.923076923076</v>
       </c>
     </row>
-    <row r="8" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>-29.633802816901401</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>171.99672667757699</v>
       </c>
     </row>
-    <row r="9" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>-19.746478873239401</v>
       </c>
@@ -5538,7 +5537,7 @@
         <v>184.17348608837901</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>-19.746478873239401</v>
       </c>
@@ -5570,7 +5569,7 @@
         <v>202.945990180032</v>
       </c>
     </row>
-    <row r="11" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>-9.8591549295774694</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>233.89525368248701</v>
       </c>
     </row>
-    <row r="12" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>2.8169014084511401E-2</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>254.189852700491</v>
       </c>
     </row>
-    <row r="13" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>22.845070422535201</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>264.33715220949199</v>
       </c>
     </row>
-    <row r="14" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>40.084507042253499</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>273.46972176759402</v>
       </c>
     </row>
-    <row r="15" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>59.8591549295774</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>300.36006546644802</v>
       </c>
     </row>
-    <row r="16" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E16" s="1">
         <v>-19.746478873239401</v>
       </c>
@@ -5720,7 +5719,7 @@
         <v>239.98363338788801</v>
       </c>
     </row>
-    <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E17" s="1">
         <v>-19.746478873239401</v>
       </c>
@@ -5729,7 +5728,7 @@
       </c>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E18" s="1">
         <v>2.8169014084511401E-2</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>251.14566284778999</v>
       </c>
     </row>
-    <row r="19" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1">
         <v>22.591549295774598</v>
       </c>
@@ -5745,9 +5744,9 @@
         <v>266.87397708674303</v>
       </c>
     </row>
-    <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>-70</v>
       </c>
@@ -5811,12 +5810,12 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="111" t="s">
         <v>223</v>
       </c>
@@ -5834,7 +5833,7 @@
       </c>
       <c r="L27" s="111"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>-100</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>-80</v>
       </c>
@@ -5912,7 +5911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>-60</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>-40</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>-30</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>-20</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>-20</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>-10</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37">
         <f>0</f>
         <v>0</v>
@@ -6099,7 +6098,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="11" t="s">
         <v>26</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>40</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>60</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>-70</v>
       </c>
@@ -6211,12 +6210,12 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="111" t="s">
         <v>235</v>
       </c>
@@ -6226,7 +6225,7 @@
       </c>
       <c r="F48" s="111"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>0</v>
       </c>
@@ -6240,7 +6239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>26</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C51">
         <v>265</v>
       </c>
@@ -6265,7 +6264,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C52">
         <v>246</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C53">
         <v>249</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C54">
         <v>246</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>240</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>237</v>
       </c>
@@ -6308,7 +6307,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C57">
         <v>249</v>
       </c>
@@ -6319,7 +6318,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C58">
         <v>258</v>
       </c>
@@ -6327,7 +6326,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C59">
         <v>252</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C60">
         <v>258</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>241</v>
       </c>
@@ -6351,7 +6350,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>238</v>
       </c>
@@ -6362,7 +6361,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C63">
         <v>252</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C64">
         <v>210</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C65">
         <v>207</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>189</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>242</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>239</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C69">
         <v>195</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C70">
         <v>231</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>246</v>
       </c>
@@ -6443,7 +6442,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>243</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C73">
         <v>219</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C74">
         <v>213</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C75">
         <v>192</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C76">
         <v>210</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>247</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>244</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C79">
         <v>168</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C80">
         <v>171</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C81">
         <v>186</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>248</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>245</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C84">
         <v>168</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C85">
         <v>111</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C86">
         <v>183</v>
       </c>
@@ -6578,29 +6577,29 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C87">
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6611,36 +6610,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1073795B-F0F2-43AA-B80E-FBA6590A6A5C}">
   <dimension ref="A1:S240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="15"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" style="15"/>
+    <col min="19" max="19" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="105" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="Q2" s="17" t="s">
         <v>120</v>
@@ -6649,7 +6648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>29</v>
       </c>
@@ -6657,7 +6656,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>68</v>
       </c>
@@ -6665,11 +6664,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>123</v>
       </c>
@@ -6722,7 +6721,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>9</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>30</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>31</v>
       </c>
@@ -6861,7 +6860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>48</v>
       </c>
@@ -6911,7 +6910,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="24"/>
       <c r="C11" s="25">
         <v>3969</v>
@@ -6957,7 +6956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
       <c r="C12" s="25">
         <v>4021</v>
@@ -7003,7 +7002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="24"/>
       <c r="C13" s="25">
         <v>4025</v>
@@ -7049,7 +7048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="24"/>
       <c r="C14" s="25">
         <v>4039</v>
@@ -7095,7 +7094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="24"/>
       <c r="C15" s="25">
         <v>4040</v>
@@ -7141,7 +7140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="24"/>
       <c r="C16" s="25">
         <v>3974</v>
@@ -7187,7 +7186,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="24"/>
       <c r="C17" s="25">
         <v>3989</v>
@@ -7223,7 +7222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="24"/>
       <c r="C18" s="29">
         <v>3965</v>
@@ -7269,7 +7268,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="24"/>
       <c r="C19" s="25">
         <v>3966</v>
@@ -7315,7 +7314,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="24"/>
       <c r="C20" s="25" t="s">
         <v>49</v>
@@ -7361,7 +7360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="24"/>
       <c r="C21" s="25">
         <v>4013</v>
@@ -7407,7 +7406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="24"/>
       <c r="C22" s="25">
         <v>4022</v>
@@ -7453,7 +7452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="24"/>
       <c r="C23" s="25">
         <v>4036</v>
@@ -7499,7 +7498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="24"/>
       <c r="C24" s="25">
         <v>4037</v>
@@ -7545,7 +7544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="24"/>
       <c r="C25" s="25">
         <v>4041</v>
@@ -7591,7 +7590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="24"/>
       <c r="C26" s="25" t="s">
         <v>32</v>
@@ -7637,7 +7636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="24"/>
       <c r="C27" s="25">
         <v>3988</v>
@@ -7673,7 +7672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="24"/>
       <c r="C28" s="29">
         <v>3997</v>
@@ -7721,7 +7720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="24"/>
       <c r="C29" s="25" t="s">
         <v>53</v>
@@ -7767,7 +7766,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="24"/>
       <c r="C30" s="25" t="s">
         <v>33</v>
@@ -7813,7 +7812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="24"/>
       <c r="C31" s="25" t="s">
         <v>34</v>
@@ -7857,7 +7856,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="24"/>
       <c r="C32" s="29">
         <v>3972</v>
@@ -7905,7 +7904,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B33" s="24"/>
       <c r="C33" s="25" t="s">
         <v>35</v>
@@ -7951,7 +7950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B34" s="24"/>
       <c r="C34" s="25" t="s">
         <v>36</v>
@@ -7997,7 +7996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B35" s="24"/>
       <c r="C35" s="25" t="s">
         <v>37</v>
@@ -8043,7 +8042,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B36" s="36"/>
       <c r="C36" s="37" t="s">
         <v>38</v>
@@ -8081,7 +8080,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>10</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B38" s="24" t="s">
         <v>70</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B39" s="24" t="s">
         <v>31</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B40" s="24" t="s">
         <v>71</v>
       </c>
@@ -8280,7 +8279,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B41" s="24"/>
       <c r="C41" s="29">
         <v>3987</v>
@@ -8328,7 +8327,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B42" s="24"/>
       <c r="C42" s="25">
         <v>4005</v>
@@ -8374,7 +8373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B43" s="24"/>
       <c r="C43" s="25">
         <v>4015</v>
@@ -8412,7 +8411,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B44" s="24"/>
       <c r="C44" s="25">
         <v>4002</v>
@@ -8446,7 +8445,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B45" s="24"/>
       <c r="C45" s="29">
         <v>3991</v>
@@ -8494,7 +8493,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="24"/>
       <c r="C46" s="25" t="s">
         <v>75</v>
@@ -8540,7 +8539,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="24"/>
       <c r="C47" s="25" t="s">
         <v>76</v>
@@ -8574,7 +8573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="24"/>
       <c r="C48" s="29" t="s">
         <v>77</v>
@@ -8622,7 +8621,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B49" s="36"/>
       <c r="C49" s="37" t="s">
         <v>78</v>
@@ -8668,7 +8667,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>11</v>
       </c>
@@ -8721,7 +8720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B51" s="44" t="s">
         <v>30</v>
       </c>
@@ -8765,7 +8764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B52" s="44" t="s">
         <v>79</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B53" s="44" t="s">
         <v>80</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B54" s="44"/>
       <c r="C54" s="45" t="s">
         <v>83</v>
@@ -8903,7 +8902,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B55" s="44"/>
       <c r="C55" s="45" t="s">
         <v>84</v>
@@ -8939,7 +8938,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B56" s="44"/>
       <c r="C56" s="48">
         <v>3981</v>
@@ -8985,7 +8984,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B57" s="44"/>
       <c r="C57" s="45" t="s">
         <v>85</v>
@@ -9029,7 +9028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B58" s="44"/>
       <c r="C58" s="45" t="s">
         <v>87</v>
@@ -9073,7 +9072,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B59" s="44"/>
       <c r="C59" s="45" t="s">
         <v>88</v>
@@ -9107,7 +9106,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B60" s="44"/>
       <c r="C60" s="48">
         <v>3980</v>
@@ -9153,7 +9152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B61" s="44"/>
       <c r="C61" s="45" t="s">
         <v>89</v>
@@ -9197,7 +9196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B62" s="44"/>
       <c r="C62" s="48" t="s">
         <v>90</v>
@@ -9243,7 +9242,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B63" s="44"/>
       <c r="C63" s="45">
         <v>3973</v>
@@ -9287,7 +9286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B64" s="53"/>
       <c r="C64" s="54" t="s">
         <v>91</v>
@@ -9331,7 +9330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>12</v>
       </c>
@@ -9384,7 +9383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B66" s="44" t="s">
         <v>70</v>
       </c>
@@ -9432,7 +9431,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B67" s="44" t="s">
         <v>79</v>
       </c>
@@ -9480,7 +9479,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B68" s="44" t="s">
         <v>80</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B69" s="44"/>
       <c r="C69" s="57">
         <v>4018</v>
@@ -9562,7 +9561,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B70" s="44"/>
       <c r="C70" s="57">
         <v>3995</v>
@@ -9594,7 +9593,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B71" s="44"/>
       <c r="C71" s="62">
         <v>4017</v>
@@ -9640,7 +9639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B72" s="44"/>
       <c r="C72" s="63" t="s">
         <v>92</v>
@@ -9674,7 +9673,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B73" s="44"/>
       <c r="C73" s="57" t="s">
         <v>93</v>
@@ -9720,7 +9719,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B74" s="53"/>
       <c r="C74" s="68" t="s">
         <v>94</v>
@@ -9758,7 +9757,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B75" s="44" t="s">
         <v>69</v>
       </c>
@@ -9806,7 +9805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B76" s="44" t="s">
         <v>70</v>
       </c>
@@ -9854,7 +9853,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B77" s="44" t="s">
         <v>96</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B78" s="44" t="s">
         <v>80</v>
       </c>
@@ -9948,7 +9947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B79" s="44"/>
       <c r="C79" s="57">
         <v>4023</v>
@@ -9984,7 +9983,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B80" s="44"/>
       <c r="C80" s="62">
         <v>4010</v>
@@ -10030,7 +10029,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B81" s="44"/>
       <c r="C81" s="57" t="s">
         <v>97</v>
@@ -10074,7 +10073,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B82" s="44"/>
       <c r="C82" s="63" t="s">
         <v>98</v>
@@ -10118,7 +10117,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B83" s="44"/>
       <c r="C83" s="57">
         <v>4011</v>
@@ -10164,7 +10163,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B84" s="53"/>
       <c r="C84" s="68" t="s">
         <v>99</v>
@@ -10208,7 +10207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -10261,7 +10260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B86" s="70" t="s">
         <v>30</v>
       </c>
@@ -10309,7 +10308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B87" s="70" t="s">
         <v>31</v>
       </c>
@@ -10357,7 +10356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B88" s="70" t="s">
         <v>105</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B89" s="70"/>
       <c r="C89" s="71" t="s">
         <v>102</v>
@@ -10447,7 +10446,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B90" s="70"/>
       <c r="C90" s="74" t="s">
         <v>103</v>
@@ -10493,7 +10492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B91" s="70"/>
       <c r="C91" s="71" t="s">
         <v>104</v>
@@ -10539,7 +10538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B92" s="82" t="s">
         <v>47</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B93" s="70" t="s">
         <v>30</v>
       </c>
@@ -10627,7 +10626,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B94" s="70" t="s">
         <v>31</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B95" s="70" t="s">
         <v>115</v>
       </c>
@@ -10721,7 +10720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B96" s="70"/>
       <c r="C96" s="87">
         <v>3998</v>
@@ -10755,7 +10754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B97" s="70"/>
       <c r="C97" s="71">
         <v>4004</v>
@@ -10801,7 +10800,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B98" s="70"/>
       <c r="C98" s="71">
         <v>3984</v>
@@ -10845,7 +10844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B99" s="70"/>
       <c r="C99" s="71" t="s">
         <v>108</v>
@@ -10889,7 +10888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B100" s="70"/>
       <c r="C100" s="71">
         <v>4026</v>
@@ -10923,7 +10922,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B101" s="70"/>
       <c r="C101" s="78" t="s">
         <v>110</v>
@@ -10969,7 +10968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B102" s="70"/>
       <c r="C102" s="71" t="s">
         <v>111</v>
@@ -11013,7 +11012,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B103" s="70"/>
       <c r="C103" s="87" t="s">
         <v>112</v>
@@ -11057,7 +11056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B104" s="70"/>
       <c r="C104" s="71">
         <v>3994</v>
@@ -11103,7 +11102,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B105" s="70"/>
       <c r="C105" s="71" t="s">
         <v>113</v>
@@ -11147,7 +11146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B106" s="93"/>
       <c r="C106" s="94" t="s">
         <v>114</v>
@@ -11191,7 +11190,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B107" s="70" t="s">
         <v>47</v>
       </c>
@@ -11241,7 +11240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B108" s="70" t="s">
         <v>30</v>
       </c>
@@ -11287,7 +11286,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B109" s="70" t="s">
         <v>116</v>
       </c>
@@ -11335,7 +11334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B110" s="70" t="s">
         <v>115</v>
       </c>
@@ -11383,7 +11382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B111" s="93"/>
       <c r="C111" s="95" t="s">
         <v>119</v>
@@ -11427,26 +11426,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C238" s="10"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C240" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0FE35A-9EAF-4AAB-AA67-C02FACC2D4B3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>